--- a/数据整理/stocks/A股/深证主板/002001-新和成.xlsx
+++ b/数据整理/stocks/A股/深证主板/002001-新和成.xlsx
@@ -451,1135 +451,1533 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安沪港深机会灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2548</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>000746</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>招商行业精选股票</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>90.84</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.65</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9651</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2453</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商优质成长混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1185</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0993</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8536</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7416</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6069</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4771</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>040011</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>华安核心混合</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>94.77</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>5.26</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4192</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>64.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3779</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3779</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3363</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>550003</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信保诚盛世蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3060</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2523</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2311</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>165512</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信诚新机遇混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1689</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>34.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1177</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>620006</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金元顺安消费主题混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000058</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国联安安泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>31.13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009470</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方欣利混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008262</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商研究优选股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004774</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富添福吉祥混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>72.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>52.76</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008342</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>44.49</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009471</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东方欣利混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008343</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>44.49</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>006992</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>嘉合锦创优势精选混合</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>88.33</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>4.57</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161706</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商优质成长混合 (LOF)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>86.87</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001947</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>上投摩根安鑫回报混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002845</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上投摩根安鑫回报混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>217009</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>招商核心价值混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>90.22</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>515960</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>嘉实中证医药健康100策略ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>98.49</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>110009</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达价值精选混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>165512</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>信诚新机遇混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>89.97</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>550002</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>信诚精萃成长混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>88.24</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>360010</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>光大保德信均衡精选混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>80.90</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>550003</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中信保诚盛世蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>91.57</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>550008</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>信诚优胜精选混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>83.71</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>620006</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>金元顺安消费主题混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>92.11</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>6.12</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>000586</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>景顺长城中小板创业板精选股票</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>400001</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>东方龙混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>400003</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>东方精选混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>93.32</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>960005</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>上投摩根双息平衡混合H</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>64.06</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001266</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>国投瑞银招财灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>84.06</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>360007</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>光大保德信优势配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>85.13</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>373010</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>上投摩根双息平衡混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>64.06</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>001681</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>新华积极价值灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>34.26</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>009470</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>东方欣利混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>29.87</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009471</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>东方欣利混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>29.87</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>007952</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>招商财经大数据策略股票C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>89.94</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>008261</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>招商研究优选股票A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>89.93</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>008262</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>招商研究优选股票C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>89.93</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>002244</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>景顺长城低碳科技主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>92.71</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>003416</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>招商财经大数据策略股票A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>89.94</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>001947</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>上投摩根安鑫回报混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>26.74</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>002845</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>上投摩根安鑫回报混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>26.74</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>004774</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>汇添富添福吉祥混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>28.87</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>000058</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>国联安安泰灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>31.13</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>121010</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞源灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>72.83</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>008342</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>九泰科鑫策略精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>44.49</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>008343</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>九泰科鑫策略精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>44.49</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>161222</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>81.50</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>161727</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>招商增荣灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>52.76</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>004263</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>华安沪港深机会灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>92.33</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>006644</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>弘毅远方消费升级混合</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>90.88</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1589,7 +1987,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1610,15 +2008,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1630,26 +2038,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000746</t>
+          <t>001694</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商行业精选股票</t>
+          <t>华安沪港深外延增长灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.13</t>
+          <t>97.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9478</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1658,26 +2076,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>450001</t>
+          <t>000746</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国富中国收益混合</t>
+          <t>招商行业精选股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>63.21</t>
+          <t>52.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2745</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1686,26 +2114,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>040035</t>
+          <t>004263</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华安逆向策略混合</t>
+          <t>华安沪港深机会灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>80.30</t>
+          <t>52.59</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9563</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1714,26 +2152,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>960005</t>
+          <t>110009</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上投摩根双息平衡混合H</t>
+          <t>易方达价值精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>63.79</t>
+          <t>36.34</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9115</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1742,25 +2190,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161706</t>
+          <t>010385</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>招商优质成长混合 (LOF)</t>
+          <t>华安汇嘉精选混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>79.53</t>
+          <t>57.34</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>74.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7431</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1770,26 +2228,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>165313</t>
+          <t>450003</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>建信优势动力混合(LOF)</t>
+          <t>富兰克林国海潜力组合混合A 人民币</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>73.82</t>
+          <t>26.86</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5713</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1798,25 +2266,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>450003</t>
+          <t>960021</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富兰克林国海潜力组合混合A 人民币</t>
+          <t>富兰克林国海潜力组合混合H 人民币</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>94.29</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>5.85</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5713</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1826,26 +2304,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001694</t>
+          <t>550008</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华安沪港深外延增长灵活配置混合</t>
+          <t>信诚优胜精选混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>76.08</t>
+          <t>30.38</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4522</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1854,25 +2342,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>004263</t>
+          <t>161706</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华安沪港深机会灵活配置混合</t>
+          <t>招商优质成长混合 (LOF)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.79</t>
+          <t>26.99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2874</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1882,26 +2380,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>165512</t>
+          <t>040035</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>信诚新机遇混合(LOF)</t>
+          <t>华安逆向策略混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>88.49</t>
+          <t>34.88</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0324</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1910,26 +2418,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>165519</t>
+          <t>550002</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>信诚中证800医药指数（LOF）</t>
+          <t>信诚精萃成长混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>15.77</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7648</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1938,26 +2456,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>217009</t>
+          <t>400003</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>招商核心价值混合</t>
+          <t>东方精选混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>85.52</t>
+          <t>14.33</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7265</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1966,26 +2494,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009904</t>
+          <t>040001</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>民生加银中证200指数增强A</t>
+          <t>华安创新混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.93</t>
+          <t>17.70</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
+          <t>71.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5469</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1994,26 +2532,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009905</t>
+          <t>010271</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>民生加银中证200指数增强C</t>
+          <t>富兰克林国海价值成长一年持有期混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.93</t>
+          <t>11.45</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5084</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -2022,25 +2570,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009937</t>
+          <t>217009</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>东方欣益一年持有期偏债混合A</t>
+          <t>招商核心价值混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>22.23</t>
+          <t>11.68</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3819</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2050,26 +2608,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009938</t>
+          <t>121003</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>东方欣益一年持有期偏债混合C</t>
+          <t>国投瑞银核心企业混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>22.23</t>
+          <t>11.93</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3376</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -2078,25 +2646,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>260115</t>
+          <t>450001</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>景顺长城中小盘混合</t>
+          <t>国富中国收益混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>7.75</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+          <t>63.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3340</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2106,26 +2684,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>000586</t>
+          <t>373010</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>景顺长城中小板创业板精选股票</t>
+          <t>上投摩根双息平衡混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>8.35</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
+          <t>63.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3179</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -2134,26 +2722,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>006369</t>
+          <t>008261</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>弘毅远方国企转型升级混合</t>
+          <t>招商研究优选股票A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>92.05</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3126</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -2162,26 +2760,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>373010</t>
+          <t>550003</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>上投摩根双息平衡混合A</t>
+          <t>中信保诚盛世蓝筹混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>63.79</t>
+          <t>7.93</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>3</v>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2704</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -2190,26 +2798,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>400001</t>
+          <t>000586</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>东方龙混合</t>
+          <t>景顺长城中小板创业板精选股票</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>88.37</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>4</v>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2622</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -2218,26 +2836,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>010271</t>
+          <t>121008</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>富兰克林国海价值成长一年持有期混合A</t>
+          <t>国投瑞银成长优选混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>8</v>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2574</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2246,26 +2874,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>010272</t>
+          <t>009601</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>富兰克林国海价值成长一年持有期混合C</t>
+          <t>招商科技动力3个月滚动持有股票A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>14.24</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>8</v>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2492</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2274,26 +2912,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>400003</t>
+          <t>010386</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>东方精选混合</t>
+          <t>华安汇嘉精选混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>89.67</t>
+          <t>7.69</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>5</v>
+          <t>74.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2338</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -2302,25 +2950,35 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>006644</t>
+          <t>003416</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>弘毅远方消费升级混合</t>
+          <t>招商财经大数据策略股票A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>91.69</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2322</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2330,26 +2988,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>400032</t>
+          <t>165512</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>东方主题精选混合</t>
+          <t>信诚新机遇混合(LOF)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>5.87</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>10</v>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1996</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -2358,26 +3026,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>010301</t>
+          <t>010272</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>达诚成长先锋混合A</t>
+          <t>富兰克林国海价值成长一年持有期混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>86.96</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>3</v>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1900</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -2386,26 +3064,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>010302</t>
+          <t>400001</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>达诚成长先锋混合C</t>
+          <t>东方龙混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>86.96</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>3</v>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1800</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -2414,26 +3102,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>010385</t>
+          <t>009937</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华安汇嘉精选混合A</t>
+          <t>东方欣益一年持有期偏债混合A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>74.72</t>
+          <t>19.42</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>7</v>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1728</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -2442,26 +3140,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>010386</t>
+          <t>160642</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华安汇嘉精选混合C</t>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>74.72</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>7</v>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1599</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -2470,26 +3178,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>007305</t>
+          <t>620006</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>国联安新科技混合</t>
+          <t>金元顺安消费主题混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>74.27</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>8</v>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -2498,26 +3216,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>512120</t>
+          <t>165313</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>华安中证细分医药ETF</t>
+          <t>建信优势动力混合(LOF)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>97.93</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>8</v>
+          <t>73.82</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -2526,25 +3254,35 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>007613</t>
+          <t>004265</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>嘉合医疗健康混合</t>
+          <t>金鹰民丰回报定期开放混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>70.30</t>
+          <t>6.61</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2554,26 +3292,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>512870</t>
+          <t>001520</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>南华中证杭州湾区ETF</t>
+          <t>国投瑞银研究精选股票</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>99.76</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>10</v>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -2582,26 +3330,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>040001</t>
+          <t>008262</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>华安创新混合</t>
+          <t>招商研究优选股票C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>71.49</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>4</v>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -2610,26 +3368,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>001520</t>
+          <t>260115</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>国投瑞银研究精选股票</t>
+          <t>景顺长城中小盘混合</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>84.27</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>9</v>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -2638,25 +3406,35 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>515950</t>
+          <t>400032</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>富国中证医药50ETF</t>
+          <t>东方主题精选混合</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>99.25</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2666,26 +3444,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>515960</t>
+          <t>010301</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>嘉实中证医药健康100策略ETF</t>
+          <t>达诚成长先锋混合A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>98.99</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>7</v>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -2694,26 +3482,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>110009</t>
+          <t>007305</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>易方达价值精选混合</t>
+          <t>国联安新科技混合</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>7</v>
+          <t>74.27</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -2722,26 +3520,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>121003</t>
+          <t>165519</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>国投瑞银核心企业混合</t>
+          <t>信诚中证800医药指数（LOF）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>86.01</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>7</v>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -2750,26 +3558,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>121008</t>
+          <t>002244</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>国投瑞银成长优选混合</t>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>84.49</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>6</v>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -2778,26 +3596,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>001940</t>
+          <t>009470</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>农银汇理现代农业加灵活配置混合</t>
+          <t>东方欣利混合A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>76.81</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>9</v>
+          <t>43.55</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -2806,26 +3634,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>550002</t>
+          <t>515950</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>信诚精萃成长混合</t>
+          <t>富国中证医药50ETF</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>82.34</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>1</v>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="45">
@@ -2834,26 +3672,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>550003</t>
+          <t>001940</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>中信保诚盛世蓝筹混合</t>
+          <t>农银汇理现代农业加灵活配置混合</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>89.32</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>7</v>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="46">
@@ -2862,26 +3710,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>550008</t>
+          <t>006644</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>信诚优胜精选混合</t>
+          <t>弘毅远方消费升级混合</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>81.69</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>2</v>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="47">
@@ -2890,26 +3748,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>160642</t>
+          <t>512120</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>鹏华增瑞灵活配置混合(LOF)</t>
+          <t>华安中证细分医药ETF</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>79.78</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>4</v>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -2918,26 +3786,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>620006</t>
+          <t>009602</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>金元顺安消费主题混合</t>
+          <t>招商科技动力3个月滚动持有股票C</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>90.52</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>6.92</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>3</v>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -2946,26 +3824,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>002244</t>
+          <t>006369</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>景顺长城低碳科技主题灵活配置混合</t>
+          <t>弘毅远方国企转型升级混合</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>6.30</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>3</v>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50">
@@ -2984,15 +3872,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
           <t>54.19</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>3.81</t>
         </is>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3002,26 +3900,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>003416</t>
+          <t>010302</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>招商财经大数据策略股票A</t>
+          <t>达诚成长先锋混合C</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>81.93</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>7</v>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -3030,25 +3938,35 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>007952</t>
+          <t>515960</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>招商财经大数据策略股票C</t>
+          <t>嘉实中证医药健康100策略ETF</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>81.93</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3058,25 +3976,35 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>008261</t>
+          <t>009471</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>招商研究优选股票A</t>
+          <t>东方欣利混合C</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>82.39</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
+          <t>43.55</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3086,25 +4014,35 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>008262</t>
+          <t>009938</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>招商研究优选股票C</t>
+          <t>东方欣益一年持有期偏债混合C</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>82.39</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3114,26 +4052,36 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>004265</t>
+          <t>512870</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>金鹰民丰回报定期开放混合</t>
+          <t>南华中证杭州湾区ETF</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>28.44</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>4</v>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -3142,26 +4090,36 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>009470</t>
+          <t>007613</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>东方欣利混合A</t>
+          <t>嘉合医疗健康混合</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>43.55</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>8</v>
+          <t>70.30</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -3170,26 +4128,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>009471</t>
+          <t>009904</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>东方欣利混合C</t>
+          <t>民生加银中证200指数增强A</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>43.55</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>8</v>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="58">
@@ -3198,26 +4166,36 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>009601</t>
+          <t>009905</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>招商科技动力3个月滚动持有股票A</t>
+          <t>民生加银中证200指数增强C</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>82.97</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>10</v>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -3226,26 +4204,30 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>009602</t>
+          <t>960005</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>招商科技动力3个月滚动持有股票C</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>82.97</t>
-        </is>
-      </c>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>10</v>
+          <t>63.79</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -3254,26 +4236,30 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>960021</t>
+          <t>007952</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>富兰克林国海潜力组合混合H 人民币</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>94.29</t>
-        </is>
-      </c>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>2</v>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002001-新和成.xlsx
+++ b/数据整理/stocks/A股/深证主板/002001-新和成.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4212,7 +4213,6 @@
           <t>上投摩根双息平衡混合H</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
           <t>63.79</t>
@@ -4244,7 +4244,6 @@
           <t>招商财经大数据策略股票C</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
           <t>81.93</t>
@@ -4260,6 +4259,1390 @@
       </c>
       <c r="H60" t="n">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2816</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6379</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6354</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>450003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合A 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4158</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>960021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合H 人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4158</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商优质成长混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1579</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9462</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6307</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010271</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5262</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>550003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信保诚盛世蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3383</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>55.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2862</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2814</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2365</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2200</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2022</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010272</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1967</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>165512</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信诚新机遇混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1482</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>620006</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金元顺安消费主题混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008262</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商研究优选股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>62.62</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>512870</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南华中证杭州湾区ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009470</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方欣利混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>38.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>95.48</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008154</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF联接A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009471</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东方欣利混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>38.95</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008155</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF联接C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>55.71</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002001-新和成.xlsx
+++ b/数据整理/stocks/A股/深证主板/002001-新和成.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5648,4 +5649,1352 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8813</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>69.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8506</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>960021</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合H 人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3954</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>450003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合A 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3954</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0737</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6877</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5366</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010271</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5196</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4245</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000973</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新华增盈回报债券</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3114</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>44.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2590</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2215</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2132</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010272</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1936</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1664</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1515</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>620006</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金元顺安消费主题混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.63</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>970020</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>50.73</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003062</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>970021</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>50.73</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003063</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>55.77</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002001-新和成.xlsx
+++ b/数据整理/stocks/A股/深证主板/002001-新和成.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6997,4 +6998,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>35</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>59</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002001-新和成.xlsx
+++ b/数据整理/stocks/A股/深证主板/002001-新和成.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7006,7 +7007,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7017,17 +7018,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7037,14 +7058,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>34</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.05</v>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>70.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0570</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -7053,14 +7096,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>35</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.4</v>
+          <t>450003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合A 人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8679</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -7069,14 +7134,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>59</v>
-      </c>
-      <c r="D4" t="n">
-        <v>25.61</v>
+          <t>960021</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合H 人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8679</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -7085,13 +7172,1747 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8668</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2451</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>39.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2430</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9346</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>63.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7880</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>450004</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国富深化价值混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7877</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5325</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5321</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012510</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富兰克林国海优质企业一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4558</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3690</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3644</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013610</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信保诚前瞻优势混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>35.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3042</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010271</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2958</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2707</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2593</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2561</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>620006</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金元顺安消费主题混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010272</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011748</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>55.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>515950</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011132</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>95.52</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159838</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时中证医药50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001488</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003025</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>新华红利回报混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011254</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011133</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>95.52</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012511</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富兰克林国海优质企业一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>512870</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南华中证杭州湾区ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001489</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>万家瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011749</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>55.37</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011255</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>78.67</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>46</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>59</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25.61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>39</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>13.86</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002001-新和成.xlsx
+++ b/数据整理/stocks/A股/深证主板/002001-新和成.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8811,7 +8812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8822,17 +8823,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8842,14 +8863,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>46</v>
-      </c>
-      <c r="D2" t="n">
-        <v>17.55</v>
+          <t>501203</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0291</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -8858,14 +8901,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>34</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.05</v>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6069</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -8874,14 +8939,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>35</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.4</v>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发科技创新混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2158</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -8890,14 +8977,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>59</v>
-      </c>
-      <c r="D5" t="n">
-        <v>25.61</v>
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>64.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0399</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -8906,13 +9015,3129 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0249</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>49.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7798</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5917</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>960021</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合H 人民币</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>32.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5199</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>450003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合A 人民币</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>32.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5199</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>39.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4116</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>36.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2479</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>450004</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国富深化价值混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>36.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0905</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>33.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>60.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0718</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>36.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0502</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010699</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红创新趋势混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9518</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7927</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012186</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7755</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>32.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7585</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>61.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7291</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6340</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010417</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商盛洋3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6182</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5864</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>25.22</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5069</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5049</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>17.25</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4537</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4521</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001076</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达改革红利混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4251</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3494</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>65.58</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3214</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>910005</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方红启兴三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3170</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3107</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2848</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2728</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012073</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2574</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012187</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2329</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013422</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>太平智行三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2122</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010271</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2120</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1970</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1809</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1758</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>13.10</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1742</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>550003</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中信保诚盛世蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1390</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>515950</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>620006</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>金元顺安消费主题混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>450010</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>512650</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇添富中证长三角一体化发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>96.00</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010272</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>165512</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>信诚新机遇混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011132</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004731</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>万家瑞尧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>159838</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博时中证医药50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005237</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>000042</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国信价值智选混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>67.38</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011133</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>512870</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>南华中证杭州湾区ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>004732</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>万家瑞尧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005238</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>516560</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华宝养老ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>013242</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>北信瑞丰优势行业股票</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012074</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001864</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中海魅力长三角灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001731</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001732</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>000761</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>国富健康优质生活股票</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>003184</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>83</v>
+      </c>
+      <c r="D2" t="n">
+        <v>37.94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>46</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>59</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25.61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>39</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>13.86</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002001-新和成.xlsx
+++ b/数据整理/stocks/A股/深证主板/002001-新和成.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12020,7 +12021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12031,17 +12032,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -12051,14 +12072,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>83</v>
-      </c>
-      <c r="D2" t="n">
-        <v>37.94</v>
+          <t>450004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国富深化价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>97.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0101</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -12067,14 +12110,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>46</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17.55</v>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9054</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -12083,14 +12148,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>34</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.05</v>
+          <t>960021</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合H 人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7073</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -12099,14 +12186,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>35</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.4</v>
+          <t>450003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合A 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7073</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -12115,14 +12224,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>59</v>
-      </c>
-      <c r="D6" t="n">
-        <v>25.61</v>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>42.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6249</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -12131,13 +12262,1359 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>501203</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>67.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5630</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>53.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2017</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9601</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>63.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8660</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7343</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010417</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商盛洋3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5166</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4220</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4047</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3719</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>516820</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安中证医药及医疗器械创新交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3289</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2924</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2601</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1699</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>620006</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金元顺安消费主题混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011175</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000042</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国信价值智选混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.74</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011176</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000214</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发成长优选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013873</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安中证医药及医疗器械创新指数A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013874</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>平安中证医药及医疗器械创新指数C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006457</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>58.87</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006458</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>58.87</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003184</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>37</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>83</v>
+      </c>
+      <c r="D3" t="n">
+        <v>37.94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>46</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>34</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>59</v>
+      </c>
+      <c r="D7" t="n">
+        <v>25.61</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>39</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>13.86</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002001-新和成.xlsx
+++ b/数据整理/stocks/A股/深证主板/002001-新和成.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D2" t="n">
-        <v>18.69</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>37.94</v>
+        <v>18.69</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="D4" t="n">
-        <v>17.55</v>
+        <v>37.94</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D5" t="n">
-        <v>12.05</v>
+        <v>17.55</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
-        <v>14.4</v>
+        <v>12.05</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D7" t="n">
-        <v>25.61</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>59</v>
+      </c>
+      <c r="D8" t="n">
+        <v>25.61</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>39</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>13.86</v>
       </c>
     </row>
@@ -600,6 +617,2870 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>450004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国富深化价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9272</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>960021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合H 人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3302</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>450003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合A 人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3302</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7756</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>63.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6660</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5568</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4747</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4651</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>69.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4457</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>516820</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安中证医药及医疗器械创新ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4185</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3771</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013610</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信保诚前瞻优势混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3553</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2517</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1955</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城中小创精选股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1945</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515950</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010271</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1157</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011980</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富兰克林国海匠心精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>620006</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金元顺安消费主题混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011175</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000214</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发成长优选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>38.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009955</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发鑫裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>30.01</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002134</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发鑫裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>30.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010272</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159838</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>163118</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159760</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰康国证公共卫生与健康ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011981</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富兰克林国海匠心精选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001484</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>天弘新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>015394</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国信价值智选混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>76.70</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014151</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国富鑫享价值一年封闭混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>46.24</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014321</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007663</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>平安安享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002282</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>平安安享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>016254</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>160635</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>30.56</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004680</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>39.41</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>560600</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>方正富邦中证医药及医疗器械创新ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011176</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>512870</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>南华中证杭州湾区ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>28.48</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014152</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国富鑫享价值一年封闭混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>46.24</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010366</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006190</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>39.41</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>97.84</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>015176</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>015497</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华泰紫金中证医药50指数A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000761</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国富健康优质生活股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>70.27</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006458</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>77.33</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013080</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>28.48</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>014932</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>015498</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华泰紫金中证医药50指数C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>016258</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>014322</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>016246</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>天弘新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006457</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>77.33</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>016255</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>70.27</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2059,7 +4940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5267,7 +8148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7071,7 +9952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8419,7 +11300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9803,7 +12684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12087,7 +14968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002001-新和成.xlsx
+++ b/数据整理/stocks/A股/深证主板/002001-新和成.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>12.75</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D3" t="n">
-        <v>18.69</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="D4" t="n">
-        <v>37.94</v>
+        <v>18.69</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="D5" t="n">
-        <v>17.55</v>
+        <v>37.94</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D6" t="n">
-        <v>12.05</v>
+        <v>17.55</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" t="n">
-        <v>14.4</v>
+        <v>12.05</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D8" t="n">
-        <v>25.61</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1566 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>59</v>
+      </c>
+      <c r="D9" t="n">
+        <v>25.61</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>39</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>13.86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安沪港深机会灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2548</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9651</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2453</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商优质成长混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1185</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0993</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8536</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7416</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6069</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4771</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>040011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安核心混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4192</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>64.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3779</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3779</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3363</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>550003</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信保诚盛世蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3060</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2523</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2311</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>165512</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信诚新机遇混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1689</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>34.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1177</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>620006</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金元顺安消费主题混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000058</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国联安安泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>31.13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009470</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方欣利混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008262</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商研究优选股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004774</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富添福吉祥混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>72.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>52.76</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008342</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>44.49</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009471</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东方欣利混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008343</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>44.49</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001947</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>上投摩根安鑫回报混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002845</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上投摩根安鑫回报混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2170,782 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013610</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信保诚前瞻优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2629</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2254</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中小创精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1881</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010532</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发恒信一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1544</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1344</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>620006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金元顺安消费主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>450008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国富沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009955</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发鑫裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>37.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002134</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发鑫裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>37.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011989</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇安鑫泽稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010533</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发恒信一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国信价值智选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014321</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011990</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇安鑫泽稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014322</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3480,7 +5809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4940,7 +7269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8148,7 +10477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9952,7 +12281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11300,7 +13629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12684,7 +15013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14966,1540 +17295,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004263</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安沪港深机会灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>45.46</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.33</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.2548</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000746</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>招商行业精选股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>42.26</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.84</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.9651</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>550008</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>信诚优胜精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>30.90</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>83.71</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.2453</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161706</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商优质成长混合 (LOF)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>23.90</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.87</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.1185</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>110009</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达价值精选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>35.69</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.0993</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>360007</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>光大保德信优势配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>15.38</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>85.13</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.8536</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>550002</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>信诚精萃成长混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>19.83</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.24</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.7416</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>400003</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>东方精选混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>16.27</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.32</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.6069</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008261</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>招商研究优选股票A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>9.21</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.93</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4771</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>040011</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华安核心混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>7.97</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4192</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>960005</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>上投摩根双息平衡混合H</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>11.92</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>64.06</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3779</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>373010</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>上投摩根双息平衡混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>11.92</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>64.06</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.3779</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>217009</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>招商核心价值混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>12.55</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90.22</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.3363</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>550003</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中信保诚盛世蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>11.29</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>91.57</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.3060</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>003416</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>招商财经大数据策略股票A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>89.94</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.2523</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>000586</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>景顺长城中小板创业板精选股票</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.2311</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>165512</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>信诚新机遇混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>89.97</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1689</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>400001</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>东方龙混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1483</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>001681</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>新华积极价值灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>34.26</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1177</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>620006</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>金元顺安消费主题混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>92.11</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>6.12</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1144</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>000058</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>国联安安泰灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>6.93</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>31.13</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0845</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>009470</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>东方欣利混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>29.87</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0743</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>008262</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>招商研究优选股票C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>89.93</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0689</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>004774</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>汇添富添福吉祥混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>28.87</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0674</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>006644</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>弘毅远方消费升级混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>90.88</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0510</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>161222</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>81.50</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0482</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>002244</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>景顺长城低碳科技主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>92.71</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0448</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>121010</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞源灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>72.83</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0448</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>161727</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>招商增荣灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>52.76</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0382</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>360010</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>光大保德信均衡精选混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>80.90</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0381</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>515960</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>嘉实中证医药健康100策略ETF</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>98.49</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0301</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>001266</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>国投瑞银招财灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>84.06</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0229</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>008342</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>九泰科鑫策略精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>44.49</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0202</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>009471</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>东方欣利混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>29.87</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0112</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>008343</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>九泰科鑫策略精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>44.49</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>006992</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>嘉合锦创优势精选混合</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>88.33</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>001947</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>上投摩根安鑫回报混合A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>26.74</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>002845</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>上投摩根安鑫回报混合C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>26.74</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>007952</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>招商财经大数据策略股票C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>89.94</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>